--- a/contents/save/몬스터-어둑시니_패턴05_18_fix1.xlsx
+++ b/contents/save/몬스터-어둑시니_패턴05_18_fix1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\4학년1학기\졸작\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\GitHub\wep_atens\contents\save\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2959B0E0-EEF6-4C0D-A335-5F6A0E34C061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52716754-F2B1-4860-A14D-50C8550CBF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{34AE3799-3BB6-4C26-A362-37947986EAAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{34AE3799-3BB6-4C26-A362-37947986EAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="어둑시니" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="156">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1003,7 +1003,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1195,6 +1195,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1552,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35685CDF-3594-4CBA-AB60-9A99A0D91C8A}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="A8:F9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1569,7 +1572,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
+      <c r="A1" s="26" t="s">
+        <v>13</v>
+      </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -1578,65 +1583,75 @@
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>103</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="18" t="s">
+      <c r="D4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="64" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>14</v>
@@ -1645,19 +1660,19 @@
         <v>18</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="65"/>
-    </row>
-    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>14</v>
@@ -1666,19 +1681,19 @@
         <v>18</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>98</v>
+        <v>22</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>99</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="65"/>
-    </row>
-    <row r="7" spans="1:7" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>14</v>
@@ -1687,399 +1702,342 @@
         <v>18</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>99</v>
+        <v>39</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="65"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="64"/>
+    </row>
+    <row r="9" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="D9" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="65"/>
-    </row>
-    <row r="9" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="25" t="s">
+      <c r="G9" s="40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="66"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="30"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="30"/>
+        <v>33</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="43"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="43"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D16" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F16" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G16" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="18" t="s">
+    <row r="17" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="65" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="13" t="s">
+      <c r="D17" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="65" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="65"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="13" t="s">
+      <c r="D18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="66"/>
+    </row>
+    <row r="19" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="65"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="25" t="s">
+      <c r="D19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="66"/>
+    </row>
+    <row r="20" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="66"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="30"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="64" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="D20" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="66"/>
+    </row>
+    <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" s="65"/>
-    </row>
-    <row r="22" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" t="s">
-        <v>118</v>
-      </c>
-      <c r="G22" s="65"/>
-    </row>
-    <row r="23" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="65"/>
-    </row>
-    <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>115</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="G23" s="40"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="28"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="13"/>
-      <c r="F24" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="G26" s="40"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="G27" s="40"/>
+      <c r="G24" s="40"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="41"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="G13:G16"/>
-    <mergeCell ref="G20:G23"/>
+  <mergeCells count="1">
+    <mergeCell ref="G17:G20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2167,8 +2125,8 @@
       <c r="F3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="67"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
@@ -2191,8 +2149,8 @@
       <c r="F4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="67"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
@@ -2215,8 +2173,8 @@
       <c r="F5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="67"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="68"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
@@ -2239,8 +2197,8 @@
       <c r="F6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="67"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="68"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
@@ -2251,8 +2209,8 @@
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="67"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="68"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
@@ -2263,8 +2221,8 @@
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="67"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="68"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
@@ -2316,7 +2274,7 @@
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
       <c r="G12" s="61"/>
-      <c r="H12" s="67"/>
+      <c r="H12" s="68"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
@@ -2342,7 +2300,7 @@
       <c r="G13" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="68"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
@@ -2365,8 +2323,8 @@
       <c r="F14" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="69"/>
-      <c r="H14" s="68"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="69"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
@@ -2389,8 +2347,8 @@
       <c r="F15" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="69"/>
-      <c r="H15" s="68"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
@@ -2411,7 +2369,7 @@
       <c r="F16" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="69"/>
+      <c r="G16" s="70"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -2433,7 +2391,7 @@
       <c r="F17" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="69"/>
+      <c r="G17" s="70"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -2460,7 +2418,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
       <c r="G19" s="61"/>
-      <c r="H19" s="67"/>
+      <c r="H19" s="68"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
@@ -2486,7 +2444,7 @@
       <c r="G20" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="68"/>
+      <c r="H20" s="69"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
@@ -2507,8 +2465,8 @@
         <v>146</v>
       </c>
       <c r="F21" s="37"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="68"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
@@ -2529,8 +2487,8 @@
         <v>147</v>
       </c>
       <c r="F22" s="37"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="68"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="69"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
@@ -2551,7 +2509,7 @@
         <v>153</v>
       </c>
       <c r="F23" s="37"/>
-      <c r="G23" s="69"/>
+      <c r="G23" s="70"/>
       <c r="H23" s="1"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
@@ -2573,7 +2531,7 @@
         <v>143</v>
       </c>
       <c r="F24" s="37"/>
-      <c r="G24" s="69"/>
+      <c r="G24" s="70"/>
       <c r="H24" s="1"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
@@ -2616,7 +2574,7 @@
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
-      <c r="H26" s="67"/>
+      <c r="H26" s="68"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
     </row>
@@ -2628,7 +2586,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="63"/>
       <c r="G27" s="63"/>
-      <c r="H27" s="67"/>
+      <c r="H27" s="68"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
@@ -2640,7 +2598,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="67"/>
+      <c r="H28" s="68"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
@@ -2652,7 +2610,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="67"/>
+      <c r="H29" s="68"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
     </row>
@@ -2826,7 +2784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE393D27-080F-4AFA-B414-697D5A2F2158}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -2906,7 +2864,7 @@
         <v>129</v>
       </c>
       <c r="G3" s="45"/>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="74" t="s">
         <v>121</v>
       </c>
       <c r="I3" s="10"/>
@@ -2930,7 +2888,7 @@
         <v>125</v>
       </c>
       <c r="G4" s="47"/>
-      <c r="H4" s="74"/>
+      <c r="H4" s="75"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
@@ -2954,7 +2912,7 @@
         <v>126</v>
       </c>
       <c r="G5" s="47"/>
-      <c r="H5" s="74"/>
+      <c r="H5" s="75"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
@@ -2968,7 +2926,7 @@
       <c r="E6" s="51"/>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
-      <c r="H6" s="74"/>
+      <c r="H6" s="75"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
@@ -2982,7 +2940,7 @@
       <c r="E7" s="51"/>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
-      <c r="H7" s="74"/>
+      <c r="H7" s="75"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
@@ -2994,7 +2952,7 @@
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
       <c r="G8" s="49"/>
-      <c r="H8" s="75"/>
+      <c r="H8" s="76"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
@@ -3072,7 +3030,7 @@
         <v>130</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="65"/>
+      <c r="H12" s="66"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
@@ -3086,7 +3044,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="13"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="76"/>
+      <c r="H13" s="77"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
@@ -3100,7 +3058,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="13"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="76"/>
+      <c r="H14" s="77"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
@@ -3114,7 +3072,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="77"/>
+      <c r="H15" s="78"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
@@ -3192,7 +3150,7 @@
         <v>123</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="70"/>
+      <c r="H19" s="71"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
@@ -3216,7 +3174,7 @@
         <v>136</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="71"/>
+      <c r="H20" s="72"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
@@ -3230,7 +3188,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="13"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="71"/>
+      <c r="H21" s="72"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
@@ -3244,7 +3202,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="72"/>
+      <c r="H22" s="73"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
@@ -3446,7 +3404,7 @@
       <c r="G4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="65" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3472,7 +3430,7 @@
       <c r="G5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="65"/>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
@@ -3496,7 +3454,7 @@
       <c r="G6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="65"/>
+      <c r="H6" s="66"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
@@ -3520,7 +3478,7 @@
       <c r="G7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="65"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
@@ -3544,7 +3502,7 @@
       <c r="G8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
@@ -3568,7 +3526,7 @@
       <c r="G9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="66"/>
+      <c r="H9" s="67"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H10" s="30"/>
@@ -3625,7 +3583,7 @@
         <v>28</v>
       </c>
       <c r="G13" s="18"/>
-      <c r="H13" s="65" t="s">
+      <c r="H13" s="66" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3648,7 +3606,7 @@
       <c r="F14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="65"/>
+      <c r="H14" s="66"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
@@ -3669,7 +3627,7 @@
       <c r="F15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="65"/>
+      <c r="H15" s="66"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="29">
@@ -3681,7 +3639,7 @@
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="66"/>
+      <c r="H16" s="67"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
@@ -3740,7 +3698,7 @@
         <v>50</v>
       </c>
       <c r="G20" s="18"/>
-      <c r="H20" s="65" t="s">
+      <c r="H20" s="66" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3763,7 +3721,7 @@
       <c r="F21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="65"/>
+      <c r="H21" s="66"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="28">
@@ -3784,7 +3742,7 @@
       <c r="F22" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="65"/>
+      <c r="H22" s="66"/>
     </row>
     <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="29">
@@ -3804,7 +3762,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="66"/>
+      <c r="H23" s="67"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
@@ -3858,7 +3816,7 @@
         <v>47</v>
       </c>
       <c r="G27" s="18"/>
-      <c r="H27" s="64" t="s">
+      <c r="H27" s="65" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3881,13 +3839,13 @@
       <c r="F28" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="65"/>
+      <c r="H28" s="66"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="28">
         <v>3</v>
       </c>
-      <c r="H29" s="65"/>
+      <c r="H29" s="66"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="29"/>
@@ -3897,7 +3855,7 @@
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="66"/>
+      <c r="H30" s="67"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>

--- a/contents/save/몬스터-어둑시니_패턴05_18_fix1.xlsx
+++ b/contents/save/몬스터-어둑시니_패턴05_18_fix1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\GitHub\wep_atens\contents\save\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52716754-F2B1-4860-A14D-50C8550CBF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B369A4-8814-45DE-8DC3-1C281C640459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{34AE3799-3BB6-4C26-A362-37947986EAAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{34AE3799-3BB6-4C26-A362-37947986EAAB}"/>
   </bookViews>
   <sheets>
     <sheet name="어둑시니" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="154">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,16 +330,6 @@
   </si>
   <si>
     <t>Dash_Air_Attack_Seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 이동할건지 대시 할건지?
-2 공격만 할건지 공격 사이 이동을 넣을건지?
-일단 모든 전투 요소 들어갈것임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> A + a?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1205,41 +1195,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1555,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35685CDF-3594-4CBA-AB60-9A99A0D91C8A}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1605,53 +1595,41 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="18" t="s">
+      <c r="E4" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G4" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="5" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>14</v>
@@ -1660,19 +1638,19 @@
         <v>18</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>14</v>
@@ -1681,19 +1659,19 @@
         <v>18</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>99</v>
+        <v>15</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>14</v>
@@ -1702,10 +1680,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>100</v>
+        <v>22</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>19</v>
@@ -1713,52 +1691,50 @@
       <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B9" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C9" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D9" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="25" t="s">
+      <c r="E9" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="64"/>
-    </row>
-    <row r="9" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="G9" s="64"/>
+    </row>
+    <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>14</v>
@@ -1767,19 +1743,21 @@
         <v>18</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="40"/>
+      <c r="G10" s="40" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>14</v>
@@ -1788,10 +1766,10 @@
         <v>18</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>19</v>
@@ -1799,48 +1777,58 @@
       <c r="G11" s="40"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="25" t="s">
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="43"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+      <c r="D13" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>19</v>
+      </c>
       <c r="G13" s="43"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="30"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="43"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
-        <v>79</v>
-      </c>
+      <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1849,75 +1837,65 @@
       <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D17" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E17" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F17" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G17" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+    <row r="18" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D18" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="65" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="99" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="E18" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
         <v>68</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="66"/>
-    </row>
-    <row r="19" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
-        <v>69</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>11</v>
@@ -1926,88 +1904,101 @@
         <v>19</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" t="s">
-        <v>118</v>
+        <v>92</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="G19" s="66"/>
     </row>
     <row r="20" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="66"/>
+    </row>
+    <row r="21" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="66"/>
+    </row>
+    <row r="22" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="66"/>
-    </row>
-    <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="28"/>
@@ -2018,26 +2009,34 @@
       <c r="G24" s="40"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="G18:G21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2120,13 +2119,13 @@
         <v>23</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="68"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
@@ -2144,13 +2143,13 @@
         <v>25</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="68"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="67"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
@@ -2168,13 +2167,13 @@
         <v>15</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="70"/>
-      <c r="H5" s="68"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="67"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
@@ -2192,13 +2191,13 @@
         <v>59</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="70"/>
-      <c r="H6" s="68"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="67"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
@@ -2209,8 +2208,8 @@
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="68"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="67"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
@@ -2221,8 +2220,8 @@
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="68"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="67"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
@@ -2266,7 +2265,7 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -2274,7 +2273,7 @@
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
       <c r="G12" s="61"/>
-      <c r="H12" s="68"/>
+      <c r="H12" s="67"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
@@ -2300,7 +2299,7 @@
       <c r="G13" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="69"/>
+      <c r="H13" s="68"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
@@ -2315,16 +2314,16 @@
         <v>18</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F14" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="70"/>
-      <c r="H14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="68"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
@@ -2339,16 +2338,16 @@
         <v>18</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F15" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="68"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
@@ -2363,20 +2362,20 @@
         <v>18</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="70"/>
+      <c r="G16" s="69"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>14</v>
@@ -2385,13 +2384,13 @@
         <v>19</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="70"/>
+      <c r="G17" s="69"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -2410,7 +2409,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -2418,7 +2417,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
       <c r="G19" s="61"/>
-      <c r="H19" s="68"/>
+      <c r="H19" s="67"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
@@ -2444,7 +2443,7 @@
       <c r="G20" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="69"/>
+      <c r="H20" s="68"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
@@ -2453,20 +2452,20 @@
         <v>67</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C21" s="37" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F21" s="37"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="68"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
@@ -2481,14 +2480,14 @@
         <v>19</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F22" s="37"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="68"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
@@ -2503,20 +2502,20 @@
         <v>19</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F23" s="37"/>
-      <c r="G23" s="70"/>
+      <c r="G23" s="69"/>
       <c r="H23" s="1"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B24" s="37" t="s">
         <v>11</v>
@@ -2525,30 +2524,30 @@
         <v>19</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F24" s="37"/>
-      <c r="G24" s="70"/>
+      <c r="G24" s="69"/>
       <c r="H24" s="1"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B25" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="37"/>
       <c r="D25" s="37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
@@ -2558,7 +2557,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B26" s="37" t="s">
         <v>11</v>
@@ -2567,14 +2566,14 @@
         <v>19</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
-      <c r="H26" s="68"/>
+      <c r="H26" s="67"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
     </row>
@@ -2586,7 +2585,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="63"/>
       <c r="G27" s="63"/>
-      <c r="H27" s="68"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
@@ -2598,7 +2597,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="68"/>
+      <c r="H28" s="67"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
@@ -2610,7 +2609,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="68"/>
+      <c r="H29" s="67"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
     </row>
@@ -2805,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2861,11 +2860,11 @@
         <v>25</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G3" s="45"/>
-      <c r="H3" s="74" t="s">
-        <v>121</v>
+      <c r="H3" s="73" t="s">
+        <v>119</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -2875,20 +2874,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" s="51"/>
       <c r="E4" s="51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G4" s="47"/>
-      <c r="H4" s="75"/>
+      <c r="H4" s="74"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
@@ -2897,22 +2896,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G5" s="47"/>
-      <c r="H5" s="75"/>
+      <c r="H5" s="74"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
@@ -2926,7 +2925,7 @@
       <c r="E6" s="51"/>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
-      <c r="H6" s="75"/>
+      <c r="H6" s="74"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
@@ -2940,7 +2939,7 @@
       <c r="E7" s="51"/>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
-      <c r="H7" s="75"/>
+      <c r="H7" s="74"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
@@ -2952,7 +2951,7 @@
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
       <c r="G8" s="49"/>
-      <c r="H8" s="76"/>
+      <c r="H8" s="75"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
@@ -3027,7 +3026,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="66"/>
@@ -3044,7 +3043,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="13"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="77"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
@@ -3058,7 +3057,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="13"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="77"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
@@ -3072,7 +3071,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="78"/>
+      <c r="H15" s="77"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
@@ -3135,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>11</v>
@@ -3144,13 +3143,13 @@
         <v>19</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="71"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
@@ -3159,7 +3158,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
@@ -3168,13 +3167,13 @@
         <v>17</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="72"/>
+      <c r="H20" s="71"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
@@ -3188,7 +3187,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="13"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="72"/>
+      <c r="H21" s="71"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
@@ -3202,7 +3201,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="25"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="73"/>
+      <c r="H22" s="72"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
@@ -3298,16 +3297,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C1" s="56" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3316,10 +3315,10 @@
       </c>
       <c r="B2" s="55"/>
       <c r="C2" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3332,8 +3331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA60AC2-729B-410D-82DC-0ADADD01CEEE}">
   <dimension ref="A2:K68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F32" sqref="E32:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3526,7 +3525,7 @@
       <c r="G9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="67"/>
+      <c r="H9" s="78"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H10" s="30"/>
@@ -3639,7 +3638,7 @@
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="67"/>
+      <c r="H16" s="78"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
@@ -3647,7 +3646,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B18" s="36"/>
       <c r="H18" s="30"/>
@@ -3762,7 +3761,7 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="67"/>
+      <c r="H23" s="78"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
@@ -3855,7 +3854,7 @@
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="67"/>
+      <c r="H30" s="78"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
@@ -3864,17 +3863,12 @@
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
     </row>
-    <row r="32" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
-      <c r="E32" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>76</v>
-      </c>
+      <c r="E32" s="30"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="6"/>
